--- a/Stats balancing + Matchmaker.xlsx
+++ b/Stats balancing + Matchmaker.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lukas\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lukas\unity_projekty\Charismatic knight\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9B4F543A-2B9A-4281-B471-1DF2E639BDB7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3F8B499-84F5-4C06-9014-E7BA2453C669}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{043CCF73-E140-467C-AD94-5345B4D8A29E}"/>
   </bookViews>
@@ -598,7 +598,7 @@
   <dimension ref="A1:J28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="M20" sqref="M20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -655,10 +655,10 @@
       </c>
       <c r="C3">
         <f>D3*(1/E3)</f>
-        <v>5</v>
+        <v>4.8499999999999996</v>
       </c>
       <c r="D3">
-        <v>0.5</v>
+        <v>0.48499999999999999</v>
       </c>
       <c r="E3">
         <v>0.1</v>
@@ -690,14 +690,14 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>225</v>
+        <v>370</v>
       </c>
       <c r="C5">
         <f>D5*(1/E5)</f>
-        <v>75</v>
-      </c>
-      <c r="D5">
-        <v>7.5</v>
+        <v>53.5</v>
+      </c>
+      <c r="D5" s="1">
+        <v>5.35</v>
       </c>
       <c r="E5">
         <v>0.1</v>
@@ -708,18 +708,21 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>3000</v>
+        <v>2560</v>
       </c>
       <c r="C6">
         <f>D6*(1/E6)</f>
-        <v>50</v>
-      </c>
-      <c r="D6">
-        <v>5</v>
+        <v>69.5</v>
+      </c>
+      <c r="D6" s="1">
+        <v>6.95</v>
       </c>
       <c r="E6">
         <v>0.1</v>
       </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D7" s="1"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
@@ -742,21 +745,21 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C12">
         <f>VLOOKUP(B12,$A$2:$E$6,2)</f>
-        <v>50</v>
+        <v>370</v>
       </c>
       <c r="D12">
         <f>VLOOKUP(B12,$A$2:$E$6,3)</f>
-        <v>5</v>
+        <v>53.5</v>
       </c>
       <c r="I12" t="s">
         <v>8</v>
       </c>
       <c r="J12">
-        <v>8.5</v>
+        <v>8.6</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
@@ -765,17 +768,17 @@
       </c>
       <c r="C13">
         <f t="shared" ref="C13:C19" si="0">VLOOKUP(B13,$A$2:$E$6,2)</f>
-        <v>225</v>
+        <v>370</v>
       </c>
       <c r="D13">
         <f t="shared" ref="D13:D19" si="1">VLOOKUP(B13,$A$2:$E$6,3)</f>
-        <v>75</v>
+        <v>53.5</v>
       </c>
       <c r="I13" t="s">
         <v>9</v>
       </c>
       <c r="J13">
-        <v>4.7</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
@@ -784,57 +787,57 @@
       </c>
       <c r="C14">
         <f t="shared" si="0"/>
-        <v>225</v>
+        <v>370</v>
       </c>
       <c r="D14">
         <f t="shared" si="1"/>
-        <v>75</v>
+        <v>53.5</v>
       </c>
       <c r="I14" t="s">
         <v>10</v>
       </c>
       <c r="J14">
-        <v>13.5</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B15">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C15">
         <f t="shared" si="0"/>
-        <v>225</v>
+        <v>0</v>
       </c>
       <c r="D15">
         <f t="shared" si="1"/>
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="J15" s="1"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B16">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C16">
         <f t="shared" si="0"/>
-        <v>225</v>
+        <v>0</v>
       </c>
       <c r="D16">
         <f t="shared" si="1"/>
-        <v>75</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B17">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C17">
         <f t="shared" si="0"/>
-        <v>225</v>
+        <v>0</v>
       </c>
       <c r="D17">
         <f t="shared" si="1"/>
-        <v>75</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.25">
@@ -870,18 +873,18 @@
       </c>
       <c r="C20" s="3">
         <f>SUM(C12:C19)</f>
-        <v>1175</v>
+        <v>1110</v>
       </c>
       <c r="D20" s="3">
         <f>SUM(D12:D19)</f>
-        <v>380</v>
+        <v>160.5</v>
       </c>
       <c r="E20" s="4" t="s">
         <v>12</v>
       </c>
       <c r="F20" s="8">
         <f>C28/D20</f>
-        <v>8.8157894736842106</v>
+        <v>15.950155763239875</v>
       </c>
       <c r="G20" t="s">
         <v>13</v>
@@ -896,41 +899,41 @@
       </c>
       <c r="C21">
         <f>VLOOKUP(B21,$A$2:$E$6,2)</f>
-        <v>3000</v>
+        <v>2560</v>
       </c>
       <c r="D21">
         <f>VLOOKUP(B21,$A$2:$E$6,3)</f>
-        <v>50</v>
+        <v>69.5</v>
       </c>
       <c r="E21" s="4"/>
       <c r="F21" s="9"/>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B22">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C22">
         <f t="shared" ref="C22:C27" si="2">VLOOKUP(B22,$A$2:$E$6,2)</f>
-        <v>225</v>
+        <v>0</v>
       </c>
       <c r="D22">
         <f t="shared" ref="D22:D27" si="3">VLOOKUP(B22,$A$2:$E$6,3)</f>
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="E22" s="4"/>
       <c r="F22" s="9"/>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B23">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C23">
         <f t="shared" si="2"/>
-        <v>125</v>
+        <v>0</v>
       </c>
       <c r="D23">
         <f t="shared" si="3"/>
-        <v>17.5</v>
+        <v>0</v>
       </c>
       <c r="E23" s="4"/>
       <c r="F23" s="9"/>
@@ -999,18 +1002,18 @@
       <c r="B28" s="2"/>
       <c r="C28" s="3">
         <f>SUM(C21:C27)</f>
-        <v>3350</v>
+        <v>2560</v>
       </c>
       <c r="D28" s="3">
         <f>SUM(D21:D27)</f>
-        <v>142.5</v>
+        <v>69.5</v>
       </c>
       <c r="E28" s="4" t="s">
         <v>15</v>
       </c>
       <c r="F28" s="8">
         <f>C20/D28</f>
-        <v>8.2456140350877192</v>
+        <v>15.971223021582734</v>
       </c>
       <c r="G28" t="s">
         <v>13</v>
